--- a/TeesteEPPlus/Excel/Template.xlsx
+++ b/TeesteEPPlus/Excel/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Inicio</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Hora</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>Hora Incio</t>
@@ -86,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -123,20 +120,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -150,23 +193,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -176,25 +224,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,92 +528,81 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.58333333333333337</v>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeesteEPPlus/Excel/Template.xlsx
+++ b/TeesteEPPlus/Excel/Template.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Modelo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,10 +45,10 @@
     <t>Hora</t>
   </si>
   <si>
-    <t>Hora Incio</t>
-  </si>
-  <si>
     <t>Hora Fim</t>
+  </si>
+  <si>
+    <t>Hora Inicio</t>
   </si>
 </sst>
 </file>
@@ -226,7 +227,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +245,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,70 +544,93 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>